--- a/static/problemTemplate.xlsx
+++ b/static/problemTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc754f0c120fde44/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vue\test-system\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CDECECE-15C0-42D9-8ECB-54A14801E8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CE4A2E-0854-49B7-BCDD-594B1D43D8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{28A90FB7-EF75-4749-B44C-3052BE0D5868}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="7270" xr2:uid="{28A90FB7-EF75-4749-B44C-3052BE0D5868}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,11 +71,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>question_ype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +443,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -477,10 +477,10 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
